--- a/PsychoPy/posner_task/conditions.xlsx
+++ b/PsychoPy/posner_task/conditions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicoletta/Desktop/posnerfirst/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Admin/Desktop/posner_task/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DC71C9E-3BFC-694B-A5D4-31E4FA1F6DB8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E465AB14-976D-744D-815A-C0F2E3B076C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="560" windowWidth="28040" windowHeight="17440" xr2:uid="{784928BD-3C46-DD4B-9937-35A50905CA41}"/>
+    <workbookView xWindow="-39040" yWindow="2740" windowWidth="28040" windowHeight="17440" xr2:uid="{784928BD-3C46-DD4B-9937-35A50905CA41}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="8">
   <si>
     <t>valid</t>
   </si>
@@ -53,10 +53,7 @@
     <t>target_x</t>
   </si>
   <si>
-    <t>neutral</t>
-  </si>
-  <si>
-    <t>images/double_arrow.png</t>
+    <t>target_y</t>
   </si>
 </sst>
 </file>
@@ -96,7 +93,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -112,7 +109,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -408,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA02B2B2-1EF3-BE47-99F1-7F9337FD672E}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -419,7 +416,7 @@
     <col min="1" max="1" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -427,139 +424,150 @@
         <v>6</v>
       </c>
       <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
         <v>-0.5</v>
       </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C2">
+        <v>-0.3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
         <v>-0.5</v>
       </c>
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C3">
+        <v>0.3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
         <v>-0.5</v>
       </c>
-      <c r="C4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C4">
+        <v>-0.3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
       <c r="B5">
         <v>-0.5</v>
       </c>
-      <c r="C5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C5">
+        <v>0.3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
       <c r="B6">
         <v>0.5</v>
       </c>
-      <c r="C6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C6">
+        <v>0.3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>3</v>
       </c>
       <c r="B7">
         <v>0.5</v>
       </c>
-      <c r="C7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C7">
+        <v>-0.3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>3</v>
       </c>
       <c r="B8">
         <v>0.5</v>
       </c>
-      <c r="C8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C8">
+        <v>0.3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>3</v>
       </c>
       <c r="B9">
         <v>0.5</v>
       </c>
-      <c r="C9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C9">
+        <v>-0.3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>2</v>
       </c>
       <c r="B10">
         <v>0.5</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10">
+        <v>0.3</v>
+      </c>
+      <c r="D10" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>3</v>
       </c>
       <c r="B11">
         <v>-0.5</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11">
+        <v>-0.3</v>
+      </c>
+      <c r="D11" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12">
-        <v>-0.5</v>
-      </c>
-      <c r="C12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13">
-        <v>0.5</v>
-      </c>
-      <c r="C13" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
